--- a/AAII_Financials/Quarterly/INDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="92">
   <si>
     <t>INDI</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,60 +665,64 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>8100</v>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>4</v>
@@ -741,13 +745,16 @@
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>4800</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
@@ -770,13 +777,16 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>3300</v>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>4</v>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,13 +825,14 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>8700</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,66 +887,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,42 +964,46 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>16200</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-8100</v>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>4</v>
@@ -996,8 +1026,11 @@
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,13 +1042,14 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>19100</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>4</v>
@@ -1038,8 +1072,11 @@
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1067,13 +1104,16 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>600</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>4</v>
@@ -1096,42 +1136,48 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>10400</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-63200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-19600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>6800</v>
-      </c>
-      <c r="I23" s="3">
-        <v>4900</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>4</v>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>10400</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-63200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-19600</v>
-      </c>
-      <c r="H26" s="3">
-        <v>6800</v>
-      </c>
-      <c r="I26" s="3">
-        <v>4900</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>10800</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-63200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-19600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>6800</v>
-      </c>
-      <c r="I27" s="3">
-        <v>4900</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,37 +1328,43 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,13 +1424,16 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-19100</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>4</v>
@@ -1386,37 +1456,43 @@
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>10800</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-63200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-19600</v>
-      </c>
-      <c r="H33" s="3">
-        <v>6800</v>
-      </c>
-      <c r="I33" s="3">
-        <v>4900</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>10800</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-63200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-19600</v>
-      </c>
-      <c r="H35" s="3">
-        <v>6800</v>
-      </c>
-      <c r="I35" s="3">
-        <v>4900</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,269 +1619,297 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>100</v>
-      </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>200</v>
-      </c>
-      <c r="G41" s="3">
-        <v>300</v>
-      </c>
-      <c r="H41" s="3">
-        <v>300</v>
-      </c>
-      <c r="I41" s="3">
-        <v>500</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>100</v>
-      </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>400</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>200</v>
-      </c>
-      <c r="E46" s="3">
-        <v>200</v>
-      </c>
-      <c r="F46" s="3">
-        <v>600</v>
-      </c>
-      <c r="G46" s="3">
-        <v>600</v>
-      </c>
-      <c r="H46" s="3">
-        <v>700</v>
-      </c>
-      <c r="I46" s="3">
-        <v>900</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>349600</v>
-      </c>
-      <c r="E47" s="3">
-        <v>349600</v>
-      </c>
-      <c r="F47" s="3">
-        <v>349600</v>
-      </c>
-      <c r="G47" s="3">
-        <v>349600</v>
-      </c>
-      <c r="H47" s="3">
-        <v>349500</v>
-      </c>
-      <c r="I47" s="3">
-        <v>347500</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="3">
         <v>345900</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1878,11 +1998,14 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>349800</v>
-      </c>
-      <c r="E54" s="3">
-        <v>349800</v>
-      </c>
-      <c r="F54" s="3">
-        <v>350100</v>
-      </c>
-      <c r="G54" s="3">
-        <v>350200</v>
-      </c>
-      <c r="H54" s="3">
-        <v>350200</v>
-      </c>
-      <c r="I54" s="3">
-        <v>348400</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K54" s="3">
         <v>347000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,54 +2095,58 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+      <c r="D57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>900</v>
-      </c>
-      <c r="E58" s="3">
-        <v>300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
@@ -2020,69 +2154,78 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>57600</v>
-      </c>
-      <c r="E59" s="3">
-        <v>97200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>35100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>37900</v>
-      </c>
-      <c r="H59" s="3">
-        <v>18400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>23400</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
         <v>26900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>59600</v>
-      </c>
-      <c r="E60" s="3">
-        <v>98100</v>
-      </c>
-      <c r="F60" s="3">
-        <v>35300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>38100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>18400</v>
-      </c>
-      <c r="I60" s="3">
-        <v>23400</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K60" s="3">
         <v>26900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,37 +2253,43 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" s="3">
         <v>12100</v>
       </c>
-      <c r="E62" s="3">
-        <v>12100</v>
-      </c>
-      <c r="F62" s="3">
-        <v>12100</v>
-      </c>
-      <c r="G62" s="3">
-        <v>12100</v>
-      </c>
-      <c r="H62" s="3">
-        <v>12100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>12100</v>
-      </c>
-      <c r="J62" s="3">
-        <v>12100</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>71700</v>
-      </c>
-      <c r="E66" s="3">
-        <v>110200</v>
-      </c>
-      <c r="F66" s="3">
-        <v>47400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>50100</v>
-      </c>
-      <c r="H66" s="3">
-        <v>30500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>35500</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K66" s="3">
         <v>39000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,37 +2491,43 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="3">
-        <v>0</v>
-      </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3">
-        <v>0</v>
+      <c r="D70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-71500</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-110000</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-46800</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-49500</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-29800</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-34600</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K72" s="3">
         <v>-37900</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>278100</v>
-      </c>
-      <c r="E76" s="3">
-        <v>239600</v>
-      </c>
-      <c r="F76" s="3">
-        <v>302800</v>
-      </c>
-      <c r="G76" s="3">
-        <v>300100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>319700</v>
-      </c>
-      <c r="I76" s="3">
-        <v>312900</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K76" s="3">
         <v>308000</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>10800</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-63200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-19600</v>
-      </c>
-      <c r="H81" s="3">
-        <v>6800</v>
-      </c>
-      <c r="I81" s="3">
-        <v>4900</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,91 +3338,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>600</v>
-      </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
-      <c r="F100" s="3">
-        <v>200</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3">
         <v>346300</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K102" s="3">
         <v>900</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="L102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>INDI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F8" s="3">
+        <v>8100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H8" s="3">
+        <v>7600</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4700</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
@@ -748,31 +752,34 @@
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2900</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -780,31 +787,34 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1800</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
@@ -812,8 +822,11 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,31 +839,32 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F12" s="3">
+        <v>8700</v>
+      </c>
+      <c r="G12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>4800</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
@@ -858,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,16 +907,19 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-300</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
@@ -916,46 +936,52 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,63 +991,67 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>27400</v>
+      </c>
+      <c r="F17" s="3">
+        <v>16200</v>
+      </c>
+      <c r="G17" s="3">
+        <v>13600</v>
+      </c>
+      <c r="H17" s="3">
+        <v>10800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-4500</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
@@ -1029,8 +1059,11 @@
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,31 +1076,32 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>31800</v>
+      </c>
+      <c r="F20" s="3">
+        <v>19100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-56400</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-300</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
@@ -1075,31 +1109,34 @@
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-107000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>11600</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-62600</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-4200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1107,31 +1144,34 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>500</v>
+      </c>
+      <c r="F22" s="3">
+        <v>600</v>
+      </c>
+      <c r="G22" s="3">
+        <v>600</v>
+      </c>
+      <c r="H22" s="3">
+        <v>500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>600</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1139,63 +1179,69 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>-108200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>10400</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-63800</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>4</v>
@@ -1203,8 +1249,11 @@
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="D26" s="3">
+        <v>-108200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>10400</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-63800</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="D27" s="3">
+        <v>-79600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>10800</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-63600</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,40 +1389,46 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,31 +1494,34 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>56400</v>
+      </c>
+      <c r="H32" s="3">
+        <v>18500</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>300</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
@@ -1459,40 +1529,46 @@
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="D33" s="3">
+        <v>-79600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>10800</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-63600</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="D35" s="3">
+        <v>-79600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>10800</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-63600</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,19 +1706,20 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>4</v>
+      <c r="D41" s="3">
+        <v>323900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>354200</v>
+      </c>
+      <c r="F41" s="3">
+        <v>8900</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>4</v>
@@ -1646,57 +1733,63 @@
       <c r="J41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F43" s="3">
+        <v>7000</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
@@ -1710,25 +1803,28 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
+      <c r="D44" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F44" s="3">
+        <v>3600</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>4</v>
@@ -1742,25 +1838,28 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2800</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
@@ -1774,25 +1873,28 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>4</v>
+      <c r="D46" s="3">
+        <v>341900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>368800</v>
+      </c>
+      <c r="F46" s="3">
+        <v>22300</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>4</v>
@@ -1806,57 +1908,63 @@
       <c r="J46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L46" s="3">
         <v>1100</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3">
         <v>345900</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2200</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
@@ -1870,25 +1978,28 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
+      <c r="D49" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2400</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
@@ -1902,14 +2013,17 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,19 +2089,22 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>200</v>
+      </c>
+      <c r="F52" s="3">
+        <v>200</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
@@ -2001,11 +2121,14 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,19 +2159,22 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>4</v>
+      <c r="D54" s="3">
+        <v>358700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>386000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>27100</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>4</v>
@@ -2062,14 +2188,17 @@
       <c r="J54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L54" s="3">
         <v>347000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,19 +2226,20 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>19300</v>
+      </c>
+      <c r="F57" s="3">
+        <v>5100</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>4</v>
@@ -2122,25 +2253,28 @@
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F58" s="3">
+        <v>9400</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
@@ -2157,22 +2291,25 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F59" s="3">
+        <v>90000</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
@@ -2186,25 +2323,28 @@
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3">
         <v>26900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>4</v>
+      <c r="D60" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>28800</v>
+      </c>
+      <c r="F60" s="3">
+        <v>104500</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>4</v>
@@ -2218,14 +2358,17 @@
       <c r="J60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L60" s="3">
         <v>26900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2236,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>11500</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2256,19 +2399,22 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>262500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>177200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2200</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -2282,14 +2428,17 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3">
         <v>12100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,19 +2539,22 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>261900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>217000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>126600</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>4</v>
@@ -2410,14 +2568,17 @@
       <c r="J66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L66" s="3">
         <v>39000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,40 +2659,46 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,19 +2729,22 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>4</v>
+      <c r="D72" s="3">
+        <v>-175100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-95400</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-142400</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>4</v>
@@ -2584,14 +2758,17 @@
       <c r="J72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" s="3">
         <v>-37900</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,19 +2869,22 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>4</v>
+      <c r="D76" s="3">
+        <v>96800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>168900</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-99600</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>4</v>
@@ -2712,14 +2898,17 @@
       <c r="J76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L76" s="3">
         <v>308000</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="D81" s="3">
+        <v>-79600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>10800</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-63600</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3031,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="D83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>600</v>
+      </c>
+      <c r="F83" s="3">
+        <v>600</v>
+      </c>
+      <c r="G83" s="3">
+        <v>700</v>
+      </c>
+      <c r="H83" s="3">
+        <v>700</v>
+      </c>
+      <c r="I83" s="3">
+        <v>700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>600</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3239,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3291,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3394,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="D94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,100 +3584,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>359100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G100" s="3">
+        <v>16400</v>
+      </c>
+      <c r="H100" s="3">
+        <v>6500</v>
+      </c>
+      <c r="I100" s="3">
+        <v>6500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3">
         <v>346300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>100</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>345300</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="G102" s="3">
+        <v>9700</v>
+      </c>
+      <c r="H102" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I102" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3">
         <v>900</v>
       </c>
-      <c r="L102" s="3" t="s">
+      <c r="M102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
   <si>
     <t>INDI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,193 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F8" s="3">
         <v>12200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>9200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>8100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>6700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>7600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>3700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4700</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F9" s="3">
         <v>6900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>5300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>4800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>4300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>3700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2900</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F10" s="3">
         <v>5300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>3900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>3300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>3900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1800</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,43 +865,51 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20900</v>
+      </c>
+      <c r="F12" s="3">
         <v>15000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>13500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>8700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>6600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>5800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>4800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>4800</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,23 +943,29 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-300</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -939,14 +978,20 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -971,17 +1016,23 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1043,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45900</v>
+      </c>
+      <c r="F17" s="3">
         <v>33400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>27400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>16200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>13600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>10800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>8300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>9200</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-21200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-18200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-8100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-6900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-3200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-4600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-4500</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,163 +1142,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-87000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>31800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>19100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-56400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-18500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-107000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>14200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>11600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-62600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-20900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-5800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-4200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
-      </c>
-      <c r="G22" s="3">
-        <v>600</v>
-      </c>
-      <c r="H22" s="3">
-        <v>500</v>
       </c>
       <c r="I22" s="3">
         <v>600</v>
       </c>
       <c r="J22" s="3">
+        <v>500</v>
+      </c>
+      <c r="K22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3">
+        <v>600</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-108200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>13000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>10400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-63800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-22200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-7000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-5400</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1243,17 +1334,23 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1384,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-108200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>13000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>10400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-63800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-22200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-7000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-5400</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-79600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>6100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>10800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-63600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-22000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-6900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-5100</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1507,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1418,17 +1539,23 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1589,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1630,96 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F32" s="3">
         <v>87000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-31800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-19100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>56400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>18500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-79600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>6100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>10800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-63600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-22000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-6900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-5100</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1753,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-79600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>6100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>10800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-63600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-22000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-6900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-5100</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1861,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,26 +1878,28 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>219100</v>
+      </c>
+      <c r="F41" s="3">
         <v>323900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>354200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>8900</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>4</v>
       </c>
@@ -1736,14 +1909,20 @@
       <c r="K41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1768,35 +1947,41 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
+      <c r="K42" s="3">
+        <v>0</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F43" s="3">
         <v>8900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>7200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>7000</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
@@ -1806,32 +1991,38 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F44" s="3">
         <v>5500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>3400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>3600</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
       </c>
@@ -1841,32 +2032,38 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F45" s="3">
         <v>3600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>4100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2800</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
@@ -1876,32 +2073,38 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>227100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>248000</v>
+      </c>
+      <c r="F46" s="3">
         <v>341900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>368800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>22300</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>4</v>
       </c>
@@ -1911,14 +2114,20 @@
       <c r="K46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="3">
         <v>1100</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1943,35 +2152,41 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="3">
         <v>345900</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F48" s="3">
         <v>3300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2200</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
@@ -1981,32 +2196,38 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>235200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>211500</v>
+      </c>
+      <c r="F49" s="3">
         <v>13300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>14200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2400</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2016,14 +2237,20 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2284,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,25 +2325,31 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="G52" s="3">
+        <v>200</v>
+      </c>
+      <c r="H52" s="3">
+        <v>200</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
@@ -2124,11 +2363,17 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,26 +2407,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>487200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>470900</v>
+      </c>
+      <c r="F54" s="3">
         <v>358700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>386000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>27100</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2191,14 +2442,20 @@
       <c r="K54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" s="3">
         <v>347000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2469,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,26 +2486,28 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E57" s="3">
         <v>5400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G57" s="3">
         <v>19300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>5100</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2256,32 +2517,38 @@
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2300</v>
+        <v>12300</v>
       </c>
       <c r="E58" s="3">
         <v>2300</v>
       </c>
       <c r="F58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H58" s="3">
         <v>9400</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2294,29 +2561,35 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F59" s="3">
         <v>9200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>7200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>90000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2326,32 +2599,38 @@
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3">
         <v>26900</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>33700</v>
+      </c>
+      <c r="F60" s="3">
         <v>16800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>28800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>104500</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2361,32 +2640,38 @@
       <c r="K60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N60" s="3">
         <v>26900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>11500</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2402,26 +2687,32 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>97100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>139700</v>
+      </c>
+      <c r="F62" s="3">
         <v>262500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>177200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2431,14 +2722,20 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3">
         <v>12100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2769,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2810,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,26 +2851,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>170000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>157800</v>
+      </c>
+      <c r="F66" s="3">
         <v>261900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>217000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>126600</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>4</v>
       </c>
@@ -2571,14 +2886,20 @@
       <c r="K66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N66" s="3">
         <v>39000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2913,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2950,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2991,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2688,17 +3023,23 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3" t="s">
-        <v>4</v>
+      <c r="K70" s="3">
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,26 +3073,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-189600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-200400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-175100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-95400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-142400</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>4</v>
       </c>
@@ -2761,14 +3108,20 @@
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3">
         <v>-37900</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3155,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3196,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,26 +3237,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="3">
+        <v>313000</v>
+      </c>
+      <c r="F76" s="3">
         <v>96800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>168900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-99600</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>4</v>
       </c>
@@ -2901,14 +3272,20 @@
       <c r="K76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N76" s="3">
         <v>308000</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3319,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-79600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>6100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>10800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-63600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-22000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-6900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-5100</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,43 +3427,51 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F83" s="3">
         <v>1100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>600</v>
-      </c>
-      <c r="G83" s="3">
-        <v>700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>700</v>
       </c>
       <c r="I83" s="3">
         <v>700</v>
       </c>
       <c r="J83" s="3">
+        <v>700</v>
+      </c>
+      <c r="K83" s="3">
+        <v>700</v>
+      </c>
+      <c r="L83" s="3">
         <v>600</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3505,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3546,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3587,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3628,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3669,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-14800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-13000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-9100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-6700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-3800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-4600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-6100</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3731,51 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3809,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3850,55 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-81900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3912,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3949,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3990,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4031,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,109 +4072,133 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-14100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>359100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>16400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>6500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>6500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>4100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
         <v>346300</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-104400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-30300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>345300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-9800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>9700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2300</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="3">
         <v>900</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="O102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
   <si>
     <t>INDI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E8" s="3">
         <v>22000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>19000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4700</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E9" s="3">
         <v>14200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2900</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E10" s="3">
         <v>7800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1800</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,40 +880,41 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E12" s="3">
         <v>29500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>20900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>15000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>13500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5800</v>
-      </c>
-      <c r="K12" s="3">
-        <v>4800</v>
       </c>
       <c r="L12" s="3">
         <v>4800</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
+      <c r="M12" s="3">
+        <v>4800</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,26 +966,29 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-300</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
@@ -984,14 +1004,17 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1022,17 +1045,20 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E17" s="3">
         <v>56300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>45900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>33400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>27400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>16200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9200</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-34300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-26900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-21200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-18200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4500</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,122 +1177,129 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>24000</v>
       </c>
       <c r="E20" s="3">
+        <v>47400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-7200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-87000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>31800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>19100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-56400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-18500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-1000</v>
       </c>
       <c r="E21" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-30500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-107000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>14200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>11600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-62600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-20900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>600</v>
       </c>
       <c r="I22" s="3">
         <v>600</v>
       </c>
       <c r="J22" s="3">
+        <v>600</v>
+      </c>
+      <c r="K22" s="3">
         <v>500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>600</v>
       </c>
       <c r="L22" s="3">
         <v>600</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3">
+        <v>600</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
@@ -1267,67 +1307,73 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-6200</v>
       </c>
       <c r="E23" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-34200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-108200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>13000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>10400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-63800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-22200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5400</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1340,8 +1386,8 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>4</v>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-5300</v>
       </c>
       <c r="E26" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-33800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-108200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>13000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>10400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-63800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-22200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5400</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-4200</v>
       </c>
       <c r="E27" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-25400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-79600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>10800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-63600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-22000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5100</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1545,17 +1606,20 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>-24000</v>
       </c>
       <c r="E32" s="3">
+        <v>-47400</v>
+      </c>
+      <c r="F32" s="3">
         <v>7200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>87000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-31800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-19100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>56400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>18500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-4200</v>
       </c>
       <c r="E33" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-25400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-79600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>10800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-63600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-22000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5100</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-4200</v>
       </c>
       <c r="E35" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-25400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-79600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>10800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-63600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-22000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5100</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,29 +1966,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>163700</v>
+      </c>
+      <c r="E41" s="3">
         <v>193000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>219100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>323900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>354200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8900</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>4</v>
       </c>
@@ -1915,14 +2002,17 @@
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1953,38 +2043,41 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E43" s="3">
         <v>16100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7000</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
@@ -1997,35 +2090,38 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E44" s="3">
         <v>10800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>9100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3600</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2038,35 +2134,38 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E45" s="3">
         <v>7200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2800</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2079,35 +2178,38 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>199400</v>
+      </c>
+      <c r="E46" s="3">
         <v>227100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>248000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>341900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>368800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>22300</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2120,14 +2222,17 @@
       <c r="M46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" s="3">
         <v>1100</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2158,38 +2263,41 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="3">
         <v>345900</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12100</v>
+        <v>22200</v>
       </c>
       <c r="E48" s="3">
+        <v>24600</v>
+      </c>
+      <c r="F48" s="3">
         <v>11100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2200</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2202,35 +2310,38 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>223100</v>
+      </c>
+      <c r="E49" s="3">
         <v>235200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>211500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>13300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2400</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2243,14 +2354,17 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,19 +2448,22 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="E52" s="3">
         <v>300</v>
       </c>
       <c r="F52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G52" s="3">
         <v>200</v>
@@ -2351,8 +2471,8 @@
       <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="I52" s="3">
+        <v>200</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -2369,11 +2489,14 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,29 +2536,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>446400</v>
+      </c>
+      <c r="E54" s="3">
         <v>487200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>470900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>358700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>386000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>27100</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2448,14 +2574,17 @@
       <c r="M54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O54" s="3">
         <v>347000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,29 +2618,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E57" s="3">
         <v>6800</v>
-      </c>
-      <c r="E57" s="3">
-        <v>5400</v>
       </c>
       <c r="F57" s="3">
         <v>5400</v>
       </c>
       <c r="G57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H57" s="3">
         <v>19300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2523,22 +2654,25 @@
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E58" s="3">
         <v>12300</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2300</v>
       </c>
       <c r="F58" s="3">
         <v>2300</v>
@@ -2547,11 +2681,11 @@
         <v>2300</v>
       </c>
       <c r="H58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I58" s="3">
         <v>9400</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2567,32 +2701,35 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>33300</v>
+        <v>29700</v>
       </c>
       <c r="E59" s="3">
+        <v>38000</v>
+      </c>
+      <c r="F59" s="3">
         <v>26000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>90000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2605,35 +2742,38 @@
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3">
         <v>26900</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E60" s="3">
         <v>57000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>33700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>28800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>104500</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2646,35 +2786,38 @@
       <c r="M60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O60" s="3">
         <v>26900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E61" s="3">
         <v>5300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5600</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>11500</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2693,29 +2836,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>97100</v>
+        <v>79700</v>
       </c>
       <c r="E62" s="3">
+        <v>107700</v>
+      </c>
+      <c r="F62" s="3">
         <v>139700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>262500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>177200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2728,14 +2874,17 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3">
         <v>12100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,29 +3012,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>170000</v>
+        <v>120800</v>
       </c>
       <c r="E66" s="3">
+        <v>153400</v>
+      </c>
+      <c r="F66" s="3">
         <v>157800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>261900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>217000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>126600</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>4</v>
       </c>
@@ -2892,14 +3050,17 @@
       <c r="M66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O66" s="3">
         <v>39000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3029,17 +3197,20 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N70" s="3">
-        <v>0</v>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,29 +3250,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-193800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-189600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-200400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-175100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-95400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-142400</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3114,14 +3288,17 @@
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="3">
         <v>-37900</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,29 +3426,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>4</v>
+      <c r="D76" s="3">
+        <v>325600</v>
       </c>
       <c r="E76" s="3">
+        <v>333800</v>
+      </c>
+      <c r="F76" s="3">
         <v>313000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>96800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>168900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-99600</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3278,14 +3464,17 @@
       <c r="M76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O76" s="3">
         <v>308000</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-4200</v>
       </c>
       <c r="E81" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-25400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-79600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>10800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-63600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-22000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5100</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,28 +3627,29 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E83" s="3">
         <v>5400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>600</v>
       </c>
       <c r="H83" s="3">
         <v>600</v>
       </c>
       <c r="I83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J83" s="3">
         <v>700</v>
@@ -3459,19 +3658,22 @@
         <v>700</v>
       </c>
       <c r="L83" s="3">
+        <v>700</v>
+      </c>
+      <c r="M83" s="3">
         <v>600</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-15700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-18900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-14800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-13000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6100</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-81900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,70 +4321,76 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-14100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>359100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>16400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>6500</v>
       </c>
       <c r="K100" s="3">
         <v>6500</v>
       </c>
       <c r="L100" s="3">
+        <v>6500</v>
+      </c>
+      <c r="M100" s="3">
         <v>4100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
         <v>346300</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
@@ -4151,54 +4400,60 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-26100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-104400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-30300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>345300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2300</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3">
         <v>900</v>
       </c>
-      <c r="O102" s="3" t="s">
+      <c r="P102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INDI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E8" s="3">
         <v>25800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>22000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>19000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4700</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E9" s="3">
         <v>15200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2900</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E10" s="3">
         <v>10600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1800</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,43 +894,44 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E12" s="3">
         <v>28500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>29500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>20900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>15000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>13500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5800</v>
-      </c>
-      <c r="L12" s="3">
-        <v>4800</v>
       </c>
       <c r="M12" s="3">
         <v>4800</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
+      <c r="N12" s="3">
+        <v>4800</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>4</v>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,29 +986,32 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+        <v>1700</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-300</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1007,14 +1027,17 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1048,17 +1071,20 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E17" s="3">
         <v>55700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>56300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>45900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>33400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>27400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9200</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-29900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-34300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-26900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-21200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-18200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4500</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,131 +1211,138 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E20" s="3">
         <v>24000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>47400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-87000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>31800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>19100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-56400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-18500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-43600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>18500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-30500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-107000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>14200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>11600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-62600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-20900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>600</v>
       </c>
       <c r="J22" s="3">
         <v>600</v>
       </c>
       <c r="K22" s="3">
+        <v>600</v>
+      </c>
+      <c r="L22" s="3">
         <v>500</v>
-      </c>
-      <c r="L22" s="3">
-        <v>600</v>
       </c>
       <c r="M22" s="3">
         <v>600</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>600</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
@@ -1310,73 +1350,79 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>13000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-34200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-108200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>13000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>10400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-63800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-22200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5400</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1389,8 +1435,8 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>4</v>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>13700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-33800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-108200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>13000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>10400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-63800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-22200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5400</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>10800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-25400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-79600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>10800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-63600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-22000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5100</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1609,17 +1670,20 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-24000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-47400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>87000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-31800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-19100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>56400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>18500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>10800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-25400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-79600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>10800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-63600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-22000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5100</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>10800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-25400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-79600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>10800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-63600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-22000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5100</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,32 +2053,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>150400</v>
+      </c>
+      <c r="E41" s="3">
         <v>163700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>193000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>219100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>323900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>354200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8900</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2005,14 +2092,17 @@
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2046,41 +2136,44 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E43" s="3">
         <v>15800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>16100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7000</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2093,38 +2186,41 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E44" s="3">
         <v>12600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>10800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>9100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3600</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2137,38 +2233,41 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E45" s="3">
         <v>7300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2800</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2181,38 +2280,41 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>194300</v>
+      </c>
+      <c r="E46" s="3">
         <v>199400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>227100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>248000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>341900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>368800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>22300</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2225,14 +2327,17 @@
       <c r="N46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="3">
         <v>1100</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2266,41 +2371,44 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3">
         <v>345900</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E48" s="3">
         <v>22200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>24600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2200</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2313,38 +2421,41 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>202900</v>
+      </c>
+      <c r="E49" s="3">
         <v>223100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>235200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>211500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>13300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>14200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2400</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2357,14 +2468,17 @@
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,22 +2568,25 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E52" s="3">
         <v>1600</v>
-      </c>
-      <c r="E52" s="3">
-        <v>300</v>
       </c>
       <c r="F52" s="3">
         <v>300</v>
       </c>
       <c r="G52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
@@ -2474,8 +2594,8 @@
       <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3">
+        <v>200</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -2492,11 +2612,14 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,32 +2662,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>421400</v>
+      </c>
+      <c r="E54" s="3">
         <v>446400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>487200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>470900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>358700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>386000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>27100</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2577,14 +2703,17 @@
       <c r="N54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P54" s="3">
         <v>347000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,32 +2749,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E57" s="3">
         <v>7600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6800</v>
-      </c>
-      <c r="F57" s="3">
-        <v>5400</v>
       </c>
       <c r="G57" s="3">
         <v>5400</v>
       </c>
       <c r="H57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I57" s="3">
         <v>19300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2657,25 +2788,28 @@
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E58" s="3">
         <v>13200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>12300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2300</v>
       </c>
       <c r="G58" s="3">
         <v>2300</v>
@@ -2684,11 +2818,11 @@
         <v>2300</v>
       </c>
       <c r="I58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J58" s="3">
         <v>9400</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2704,35 +2838,38 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E59" s="3">
         <v>29700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>38000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>26000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>90000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2745,38 +2882,41 @@
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3">
         <v>26900</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E60" s="3">
         <v>50500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>57000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>33700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>28800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>104500</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2789,38 +2929,41 @@
       <c r="N60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P60" s="3">
         <v>26900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E61" s="3">
         <v>4800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5600</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>11500</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2839,32 +2982,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>85600</v>
+      </c>
+      <c r="E62" s="3">
         <v>79700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>107700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>139700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>262500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>177200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2200</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2877,14 +3023,17 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3">
         <v>12100</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,32 +3170,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>126100</v>
+      </c>
+      <c r="E66" s="3">
         <v>120800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>153400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>157800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>261900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>217000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>126600</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3053,14 +3211,17 @@
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P66" s="3">
         <v>39000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3200,17 +3368,20 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O70" s="3">
-        <v>0</v>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,32 +3424,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-231400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-193800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-189600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-200400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-175100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-95400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-142400</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3291,14 +3465,17 @@
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3">
         <v>-37900</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,32 +3612,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>295300</v>
+      </c>
+      <c r="E76" s="3">
         <v>325600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>333800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>313000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>96800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>168900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-99600</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3467,14 +3653,17 @@
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P76" s="3">
         <v>308000</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>10800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-25400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-79600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>10800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-63600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-22000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5100</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,31 +3826,32 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>800</v>
+      </c>
+      <c r="E83" s="3">
         <v>4900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>600</v>
       </c>
       <c r="I83" s="3">
         <v>600</v>
       </c>
       <c r="J83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K83" s="3">
         <v>700</v>
@@ -3661,19 +3860,22 @@
         <v>700</v>
       </c>
       <c r="M83" s="3">
+        <v>700</v>
+      </c>
+      <c r="N83" s="3">
         <v>600</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-21200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-15700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-18900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-14800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-13000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6100</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-81900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,76 +4567,82 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-14100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>359100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>16400</v>
-      </c>
-      <c r="K100" s="3">
-        <v>6500</v>
       </c>
       <c r="L100" s="3">
         <v>6500</v>
       </c>
       <c r="M100" s="3">
+        <v>6500</v>
+      </c>
+      <c r="N100" s="3">
         <v>4100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3">
         <v>346300</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>900</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
@@ -4403,57 +4652,63 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-29200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-26100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-104400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-30300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>345300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>9700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2300</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="3">
         <v>900</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="Q102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INDI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,244 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>33000</v>
+      </c>
+      <c r="F8" s="3">
         <v>30000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>25800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>22000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>19000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>12200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>9200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>8100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>6700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>7600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4700</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F9" s="3">
         <v>15000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>15200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>14200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>11600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>6900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>5300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>4300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2900</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>16800</v>
+      </c>
+      <c r="F10" s="3">
         <v>15000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>10600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>7800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>7400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>5300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>3900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>3300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>3900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1800</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,55 +920,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>33000</v>
+      </c>
+      <c r="F12" s="3">
         <v>30200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>28500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>29500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>20900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>15000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>13500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>8700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>6600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>5800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>4800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>4800</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,35 +1022,41 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1700</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1030,14 +1069,20 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1074,17 +1119,23 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>62000</v>
+      </c>
+      <c r="F17" s="3">
         <v>55900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>55700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>56300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>45900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>33400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>27400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>16200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>13600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>10800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>8300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>9200</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-25900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-29900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-34300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-26900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-21200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-18200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-8100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-6900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-3200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-4600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-4500</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,223 +1277,249 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-46600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-18500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>24000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>47400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-7200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-87000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>31800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>19100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-56400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-18500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-77500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-43600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>18500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-30500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-107000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>14200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>11600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-62600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-20900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-5800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-4200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>600</v>
-      </c>
-      <c r="K22" s="3">
-        <v>600</v>
-      </c>
-      <c r="L22" s="3">
-        <v>500</v>
       </c>
       <c r="M22" s="3">
         <v>600</v>
       </c>
       <c r="N22" s="3">
+        <v>500</v>
+      </c>
+      <c r="O22" s="3">
         <v>600</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="P22" s="3">
+        <v>600</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-85700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-44600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-6200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>13000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-34200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-108200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>13000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>10400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-63800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-22200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-7000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-5400</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1438,17 +1529,23 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-45400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-5300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>13700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-33800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-108200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>13000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>10400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-63800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-22200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-7000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-5400</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-72700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-37600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-4200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>10800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-25400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-79600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>6100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>10800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-63600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-22000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-6900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-5100</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1673,17 +1794,23 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>46600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="F32" s="3">
         <v>18500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-24000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-47400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>7200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>87000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-31800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-19100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>56400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>18500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-72700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-37600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>10800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-25400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-79600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>6100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>10800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-63600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-22000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-6900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-5100</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-72700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-37600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>10800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-25400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-79600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>6100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>10800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-63600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-22000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-6900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-5100</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,38 +2225,40 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>207400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>321600</v>
+      </c>
+      <c r="F41" s="3">
         <v>150400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>163700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>193000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>219100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>323900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>354200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>8900</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2095,14 +2268,20 @@
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R41" s="3">
         <v>900</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2139,47 +2318,53 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
+      <c r="O42" s="3">
+        <v>0</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>26400</v>
+      </c>
+      <c r="F43" s="3">
         <v>22400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>15800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>16100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>13800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>8900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>7200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>7000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2189,44 +2374,50 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F44" s="3">
         <v>11600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>12600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>10800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>9100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>5500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>3400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>3600</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2236,44 +2427,50 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F45" s="3">
         <v>9900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>7300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>7200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>6000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>4100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2800</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2283,44 +2480,50 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>290400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>373900</v>
+      </c>
+      <c r="F46" s="3">
         <v>194300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>199400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>227100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>248000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>341900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>368800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>22300</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2330,14 +2533,20 @@
       <c r="O46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46" s="3">
         <v>1100</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2374,47 +2583,53 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
+      <c r="O47" s="3">
+        <v>0</v>
       </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" s="3">
         <v>345900</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>27900</v>
+      </c>
+      <c r="F48" s="3">
         <v>22300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>22200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>24600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>11100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2200</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2424,44 +2639,50 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>468400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>199600</v>
+      </c>
+      <c r="F49" s="3">
         <v>202900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>223100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>235200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>211500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>13300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>14200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2400</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2471,14 +2692,20 @@
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,37 +2804,43 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F52" s="3">
         <v>1900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>300</v>
-      </c>
-      <c r="H52" s="3">
-        <v>200</v>
-      </c>
-      <c r="I52" s="3">
-        <v>200</v>
       </c>
       <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3">
+        <v>200</v>
+      </c>
+      <c r="L52" s="3">
+        <v>200</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
@@ -2615,11 +2854,17 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,38 +2910,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>793600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>603400</v>
+      </c>
+      <c r="F54" s="3">
         <v>421400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>446400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>487200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>470900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>358700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>386000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>27100</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2706,14 +2957,20 @@
       <c r="O54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R54" s="3">
         <v>347000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,38 +3009,40 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F57" s="3">
         <v>8500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>7600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>6800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>5400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>5400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>19300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>5100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2791,44 +3052,50 @@
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F58" s="3">
         <v>13100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>13200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>12300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2300</v>
       </c>
       <c r="I58" s="3">
         <v>2300</v>
       </c>
       <c r="J58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L58" s="3">
         <v>9400</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2841,41 +3108,47 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>93400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>34100</v>
+      </c>
+      <c r="F59" s="3">
         <v>33800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>29700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>38000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>26000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>9200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>7200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>90000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2885,44 +3158,50 @@
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3">
         <v>26900</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>64000</v>
+      </c>
+      <c r="F60" s="3">
         <v>55300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>50500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>57000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>33700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>16800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>28800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>104500</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2932,44 +3211,50 @@
       <c r="O60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R60" s="3">
         <v>26900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>156000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>155700</v>
+      </c>
+      <c r="F61" s="3">
         <v>4200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>4800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>5300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>5600</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>11500</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2985,38 +3270,44 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>164500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>69400</v>
+      </c>
+      <c r="F62" s="3">
         <v>85600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>79700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>107700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>139700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>262500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>177200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3026,14 +3317,20 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3">
         <v>12100</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,38 +3482,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>431500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>290500</v>
+      </c>
+      <c r="F66" s="3">
         <v>126100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>120800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>153400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>157800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>261900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>217000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>126600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3214,14 +3529,20 @@
       <c r="O66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" s="3">
         <v>39000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3371,17 +3706,23 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3" t="s">
-        <v>4</v>
+      <c r="O70" s="3">
+        <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,38 +3768,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-316600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-243800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-231400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-193800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-189600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-200400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-175100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-95400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-142400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3468,14 +3815,20 @@
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3">
         <v>-37900</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,38 +3980,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>362100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>312800</v>
+      </c>
+      <c r="F76" s="3">
         <v>295300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>325600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>333800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>313000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>96800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>168900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-99600</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3656,14 +4027,20 @@
       <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R76" s="3">
         <v>308000</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-72700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-37600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>10800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-25400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-79600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>6100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>10800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-63600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-22000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-6900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-5100</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4222,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F83" s="3">
         <v>800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>4900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>5400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>3600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>1100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>600</v>
-      </c>
-      <c r="K83" s="3">
-        <v>700</v>
-      </c>
-      <c r="L83" s="3">
-        <v>700</v>
       </c>
       <c r="M83" s="3">
         <v>700</v>
       </c>
       <c r="N83" s="3">
+        <v>700</v>
+      </c>
+      <c r="O83" s="3">
+        <v>700</v>
+      </c>
+      <c r="P83" s="3">
         <v>600</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-21900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-21200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-15700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-18900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-14800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-13000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-9100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-6700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-3800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-4600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-6100</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4614,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-900</v>
-      </c>
       <c r="I91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-101600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-9300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-81900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +5055,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>190100</v>
+      </c>
+      <c r="F100" s="3">
         <v>10400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-7100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-3700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-14100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>359100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>16400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>6500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>6500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>4100</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3">
         <v>346300</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F101" s="3">
         <v>900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-114500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>171100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-13400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-29200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-26100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-104400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-30300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>345300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-9800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>9700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-2300</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R102" s="3">
         <v>900</v>
       </c>
-      <c r="Q102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INDI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>52100</v>
+      </c>
+      <c r="E8" s="3">
         <v>40500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>33000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>30000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>25800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>22000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>19000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4700</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E9" s="3">
         <v>24100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>16200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>15200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>14200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2900</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E10" s="3">
         <v>16400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>16800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>15000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1800</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,52 +935,53 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E12" s="3">
         <v>36600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>33000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>30200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>28500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>29500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>20900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>15000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>13500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5800</v>
-      </c>
-      <c r="O12" s="3">
-        <v>4800</v>
       </c>
       <c r="P12" s="3">
         <v>4800</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
+      <c r="Q12" s="3">
+        <v>4800</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>4</v>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,38 +1045,41 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2300</v>
+        <v>200</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1700</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1075,14 +1095,17 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1125,17 +1148,20 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>92800</v>
+      </c>
+      <c r="E17" s="3">
         <v>77400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>62000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>55900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>55700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>56300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>45900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>33400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>27400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9200</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-36900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-29000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-25900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-29900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-34300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-26900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-21200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-18200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-46600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>14100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-18500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>24000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>47400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-87000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>31800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>19100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-56400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-18500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-77500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-11300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-43600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>18500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-30500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-107000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>14200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-62600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-20900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,43 +1434,43 @@
         <v>2100</v>
       </c>
       <c r="E22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F22" s="3">
         <v>1200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>500</v>
-      </c>
-      <c r="L22" s="3">
-        <v>600</v>
       </c>
       <c r="M22" s="3">
         <v>600</v>
       </c>
       <c r="N22" s="3">
+        <v>600</v>
+      </c>
+      <c r="O22" s="3">
         <v>500</v>
-      </c>
-      <c r="O22" s="3">
-        <v>600</v>
       </c>
       <c r="P22" s="3">
         <v>600</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3">
+        <v>600</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
@@ -1438,91 +1478,97 @@
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-85700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-16100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-44600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>13000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-34200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-108200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>13000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-63800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-22200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S23" s="3">
         <v>-1200</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1535,8 +1581,8 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>4</v>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-82000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-45400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>13700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-33800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-108200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>13000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-63800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-22200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" s="3">
         <v>-1200</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-72700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-37600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>10800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-25400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-79600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-63600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-22000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S27" s="3">
         <v>-1200</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1800,17 +1861,20 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E32" s="3">
         <v>46600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-14100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>18500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-24000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-47400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>87000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-31800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-19100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>56400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>18500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-72700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-37600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>10800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-25400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-79600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-63600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-22000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S33" s="3">
         <v>-1200</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-72700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-37600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>10800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-25400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-79600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-63600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-22000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S35" s="3">
         <v>-1200</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,41 +2313,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>180700</v>
+      </c>
+      <c r="E41" s="3">
         <v>207400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>321600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>150400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>163700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>193000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>219100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>323900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>354200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8900</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2274,14 +2361,17 @@
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" s="3">
         <v>900</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2324,50 +2414,53 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E43" s="3">
         <v>24600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>26400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>22400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>15800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>16100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>13800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7000</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2380,47 +2473,50 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E44" s="3">
         <v>39000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>13300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>11600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>12600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>10800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>9100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3600</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2433,47 +2529,50 @@
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E45" s="3">
         <v>19400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2800</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2486,47 +2585,50 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>279500</v>
+      </c>
+      <c r="E46" s="3">
         <v>290400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>373900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>194300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>199400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>227100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>248000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>341900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>368800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>22300</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2539,14 +2641,17 @@
       <c r="Q46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="3">
         <v>1100</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2589,50 +2694,53 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="3">
         <v>345900</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E48" s="3">
         <v>32800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>27900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>22300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>22200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>24600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2200</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2645,47 +2753,50 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>463200</v>
+      </c>
+      <c r="E49" s="3">
         <v>468400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>199600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>202900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>223100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>235200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>211500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>13300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2400</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2698,14 +2809,17 @@
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,31 +2927,34 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2000</v>
+        <v>3900</v>
       </c>
       <c r="E52" s="3">
         <v>2000</v>
       </c>
       <c r="F52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G52" s="3">
         <v>1900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1600</v>
-      </c>
-      <c r="H52" s="3">
-        <v>300</v>
       </c>
       <c r="I52" s="3">
         <v>300</v>
       </c>
       <c r="J52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K52" s="3">
         <v>200</v>
@@ -2842,8 +2962,8 @@
       <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="M52" s="3">
+        <v>200</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
@@ -2860,11 +2980,14 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,41 +3039,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>780800</v>
+      </c>
+      <c r="E54" s="3">
         <v>793600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>603400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>421400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>446400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>487200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>470900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>358700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>386000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>27100</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2963,14 +3089,17 @@
       <c r="Q54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S54" s="3">
         <v>347000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,41 +3141,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E57" s="3">
         <v>16900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6800</v>
-      </c>
-      <c r="I57" s="3">
-        <v>5400</v>
       </c>
       <c r="J57" s="3">
         <v>5400</v>
       </c>
       <c r="K57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="L57" s="3">
         <v>19300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3058,34 +3189,37 @@
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E58" s="3">
         <v>4700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>15700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>13100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>13200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>12300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>2300</v>
       </c>
       <c r="J58" s="3">
         <v>2300</v>
@@ -3094,11 +3228,11 @@
         <v>2300</v>
       </c>
       <c r="L58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M58" s="3">
         <v>9400</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3114,44 +3248,47 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E59" s="3">
         <v>93400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>34100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>33800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>29700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>38000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>26000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>90000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3164,47 +3301,50 @@
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
         <v>26900</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>104100</v>
+      </c>
+      <c r="E60" s="3">
         <v>115000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>64000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>55300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>50500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>57000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>33700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>16800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>28800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>104500</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3217,47 +3357,50 @@
       <c r="Q60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" s="3">
         <v>26900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>156200</v>
+      </c>
+      <c r="E61" s="3">
         <v>156000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>155700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5600</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>11500</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3276,41 +3419,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>135300</v>
+      </c>
+      <c r="E62" s="3">
         <v>164500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>69400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>85600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>79700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>107700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>139700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>262500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>177200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3323,14 +3469,17 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3">
         <v>12100</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,41 +3643,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>394600</v>
+      </c>
+      <c r="E66" s="3">
         <v>431500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>290500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>126100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>120800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>153400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>157800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>261900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>217000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>126600</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3535,14 +3693,17 @@
       <c r="Q66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66" s="3">
         <v>39000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3712,17 +3880,20 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-      <c r="Q70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R70" s="3">
-        <v>0</v>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,41 +3945,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-329700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-316600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-243800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-231400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-193800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-189600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-200400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-175100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-95400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-142400</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3821,14 +3995,17 @@
       <c r="Q72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3">
         <v>-37900</v>
       </c>
-      <c r="S72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,41 +4169,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>386300</v>
+      </c>
+      <c r="E76" s="3">
         <v>362100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>312800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>295300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>325600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>333800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>313000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>96800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>168900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-99600</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4033,14 +4219,17 @@
       <c r="Q76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3">
         <v>308000</v>
       </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-72700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-37600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>10800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-25400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-79600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-63600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-22000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S81" s="3">
         <v>-1200</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,40 +4422,41 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E83" s="3">
         <v>6000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>600</v>
       </c>
       <c r="L83" s="3">
         <v>600</v>
       </c>
       <c r="M83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N83" s="3">
         <v>700</v>
@@ -4266,19 +4465,22 @@
         <v>700</v>
       </c>
       <c r="P83" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q83" s="3">
         <v>600</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-32900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-17900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-21900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-21200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-15700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-18900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-14800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-13000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-1600</v>
       </c>
       <c r="J91" s="3">
         <v>-1600</v>
       </c>
       <c r="K91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-101600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-81900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,94 +5304,100 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E100" s="3">
         <v>21100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>190100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>10400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-14100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>359100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>16400</v>
-      </c>
-      <c r="N100" s="3">
-        <v>6500</v>
       </c>
       <c r="O100" s="3">
         <v>6500</v>
       </c>
       <c r="P100" s="3">
+        <v>6500</v>
+      </c>
+      <c r="Q100" s="3">
         <v>4100</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3">
         <v>346300</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
@@ -5158,66 +5407,72 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-114500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>171100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-13400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-29200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-26100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-104400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-30300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>345300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>9700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S102" s="3">
         <v>900</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INDI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>60500</v>
+      </c>
+      <c r="E8" s="3">
         <v>52100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>40500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>33000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>30000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>25800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>22000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>19000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4700</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E9" s="3">
         <v>32100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>24100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>16200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>15000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>15200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>14200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2900</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E10" s="3">
         <v>20000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>16400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>16800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>15000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>10600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1800</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,55 +949,56 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E12" s="3">
         <v>42100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>36600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>33000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>30200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>28500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>29500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>20900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>15000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>13500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5800</v>
-      </c>
-      <c r="P12" s="3">
-        <v>4800</v>
       </c>
       <c r="Q12" s="3">
         <v>4800</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
+      <c r="R12" s="3">
+        <v>4800</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>4</v>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,41 +1065,44 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>500</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1700</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-300</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1098,14 +1118,17 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1151,17 +1174,20 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>96600</v>
+      </c>
+      <c r="E17" s="3">
         <v>92800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>77400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>62000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>55900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>55700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>56300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>45900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>33400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>27400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9200</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-40700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-36900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-29000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-25900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-29900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-34300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-26900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-21200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-18200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4500</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,167 +1346,174 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E20" s="3">
         <v>29700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-46600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>14100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-18500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>24000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>47400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-87000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>31800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>19100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-56400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-18500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-77500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-11300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-43600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>18500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-30500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-107000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>14200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-62600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-20900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4200</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E22" s="3">
         <v>2100</v>
       </c>
       <c r="F22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G22" s="3">
         <v>1200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>500</v>
-      </c>
-      <c r="M22" s="3">
-        <v>600</v>
       </c>
       <c r="N22" s="3">
         <v>600</v>
       </c>
       <c r="O22" s="3">
+        <v>600</v>
+      </c>
+      <c r="P22" s="3">
         <v>500</v>
-      </c>
-      <c r="P22" s="3">
-        <v>600</v>
       </c>
       <c r="Q22" s="3">
         <v>600</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="R22" s="3">
+        <v>600</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
@@ -1481,97 +1521,103 @@
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-85700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-16100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-44600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>13000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-34200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-108200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>13000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>10400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-63800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-22200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5400</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T23" s="3">
         <v>-1200</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1584,8 +1630,8 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>4</v>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-13600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-82000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-15800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-45400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>13700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-33800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-108200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>13000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>10400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-63800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-22200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5400</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="3">
         <v>-1200</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-72700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-37600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>10800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-25400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-79600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>10800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-63600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-22000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5100</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T27" s="3">
         <v>-1200</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1864,17 +1925,20 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-29700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>46600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-14100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>18500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-24000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-47400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>87000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-31800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-19100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>56400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>18500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-72700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-37600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>10800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-25400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-79600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>10800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-63600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-22000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5100</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T33" s="3">
         <v>-1200</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-72700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-37600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>10800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-25400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-79600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>10800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-63600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-22000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5100</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35" s="3">
         <v>-1200</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,44 +2400,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>160600</v>
+      </c>
+      <c r="E41" s="3">
         <v>180700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>207400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>321600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>150400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>163700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>193000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>219100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>323900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>354200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2364,14 +2451,17 @@
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T41" s="3">
         <v>900</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2417,53 +2507,56 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E43" s="3">
         <v>34900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>24600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>26400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>22400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>15800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>16100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>13800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2476,50 +2569,53 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E44" s="3">
         <v>40900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>39000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>13300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>11600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>12600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>10800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>9100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3600</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2532,50 +2628,53 @@
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E45" s="3">
         <v>23100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2800</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2588,50 +2687,53 @@
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>269900</v>
+      </c>
+      <c r="E46" s="3">
         <v>279500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>290400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>373900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>194300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>199400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>227100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>248000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>341900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>368800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>22300</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2644,14 +2746,17 @@
       <c r="R46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T46" s="3">
         <v>1100</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2697,53 +2802,56 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T47" s="3">
         <v>345900</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E48" s="3">
         <v>34300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>32800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>27900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>22300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>22200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>24600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2200</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2756,50 +2864,53 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>505900</v>
+      </c>
+      <c r="E49" s="3">
         <v>463200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>468400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>199600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>202900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>223100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>235200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>211500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2400</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2812,14 +2923,17 @@
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,34 +3047,37 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E52" s="3">
         <v>3900</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2000</v>
       </c>
       <c r="F52" s="3">
         <v>2000</v>
       </c>
       <c r="G52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H52" s="3">
         <v>1900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1600</v>
-      </c>
-      <c r="I52" s="3">
-        <v>300</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
       </c>
       <c r="K52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
@@ -2965,8 +3085,8 @@
       <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
+      <c r="N52" s="3">
+        <v>200</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
@@ -2983,11 +3103,14 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,44 +3165,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>819500</v>
+      </c>
+      <c r="E54" s="3">
         <v>780800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>793600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>603400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>421400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>446400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>487200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>470900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>358700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>386000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>27100</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3092,14 +3218,17 @@
       <c r="R54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T54" s="3">
         <v>347000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,44 +3272,45 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E57" s="3">
         <v>17000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>16900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>14200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6800</v>
-      </c>
-      <c r="J57" s="3">
-        <v>5400</v>
       </c>
       <c r="K57" s="3">
         <v>5400</v>
       </c>
       <c r="L57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="M57" s="3">
         <v>19300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3192,37 +3323,40 @@
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
+      <c r="S57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E58" s="3">
         <v>3700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>15700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>13100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>13200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>12300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2300</v>
       </c>
       <c r="K58" s="3">
         <v>2300</v>
@@ -3231,11 +3365,11 @@
         <v>2300</v>
       </c>
       <c r="M58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N58" s="3">
         <v>9400</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3251,47 +3385,50 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>124400</v>
+      </c>
+      <c r="E59" s="3">
         <v>83500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>93400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>34100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>33800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>29700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>38000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>26000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>90000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3304,50 +3441,53 @@
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3">
         <v>26900</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>149000</v>
+      </c>
+      <c r="E60" s="3">
         <v>104100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>115000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>64000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>55300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>50500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>57000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>33700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>28800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>104500</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3360,50 +3500,53 @@
       <c r="R60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T60" s="3">
         <v>26900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>156500</v>
+      </c>
+      <c r="E61" s="3">
         <v>156200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>156000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>155700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>11500</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3422,44 +3565,47 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>101300</v>
+      </c>
+      <c r="E62" s="3">
         <v>135300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>164500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>69400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>85600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>79700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>107700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>139700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>262500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>177200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3472,14 +3618,17 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3">
         <v>12100</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,44 +3801,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>406000</v>
+      </c>
+      <c r="E66" s="3">
         <v>394600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>431500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>290500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>126100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>120800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>153400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>157800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>261900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>217000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>126600</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3696,14 +3854,17 @@
       <c r="R66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T66" s="3">
         <v>39000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3883,17 +4051,20 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-      <c r="R70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S70" s="3">
-        <v>0</v>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,44 +4119,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-346800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-329700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-316600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-243800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-231400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-193800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-189600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-200400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-175100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-95400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-142400</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3998,14 +4172,17 @@
       <c r="R72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T72" s="3">
         <v>-37900</v>
       </c>
-      <c r="T72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,44 +4355,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>413500</v>
+      </c>
+      <c r="E76" s="3">
         <v>386300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>362100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>312800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>295300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>325600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>333800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>313000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>96800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>168900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-99600</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4222,14 +4408,17 @@
       <c r="R76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T76" s="3">
         <v>308000</v>
       </c>
-      <c r="T76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-72700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-37600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>10800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-25400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-79600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>10800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-63600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-22000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5100</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T81" s="3">
         <v>-1200</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,43 +4621,44 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E83" s="3">
         <v>10100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1100</v>
-      </c>
-      <c r="L83" s="3">
-        <v>600</v>
       </c>
       <c r="M83" s="3">
         <v>600</v>
       </c>
       <c r="N83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O83" s="3">
         <v>700</v>
@@ -4468,19 +4667,22 @@
         <v>700</v>
       </c>
       <c r="Q83" s="3">
+        <v>700</v>
+      </c>
+      <c r="R83" s="3">
         <v>600</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-40300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-32900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-17900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-21900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-21200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-15700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-18900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-14800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-13000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6100</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-1600</v>
       </c>
       <c r="K91" s="3">
         <v>-1600</v>
       </c>
       <c r="L91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-101600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-81900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,100 +5550,106 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E100" s="3">
         <v>14700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>21100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>190100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>10400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-14100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>359100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>16400</v>
-      </c>
-      <c r="O100" s="3">
-        <v>6500</v>
       </c>
       <c r="P100" s="3">
         <v>6500</v>
       </c>
       <c r="Q100" s="3">
+        <v>6500</v>
+      </c>
+      <c r="R100" s="3">
         <v>4100</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T100" s="3">
         <v>346300</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E101" s="3">
         <v>2200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
@@ -5410,69 +5659,75 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-26700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-114500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>171100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-13400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-29200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-26100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-104400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-30300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>345300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>9700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2300</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T102" s="3">
         <v>900</v>
       </c>
-      <c r="T102" s="3" t="s">
+      <c r="U102" s="3" t="s">
         <v>4</v>
       </c>
     </row>
